--- a/archive/2026-01-14/2220.xlsx
+++ b/archive/2026-01-14/2220.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.114\Data\3 HOURLY\2026\1-January\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E35C63-9703-4E8E-8C57-F0F5AD356F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA0A52-240F-4E9B-A6FE-4B917DD53F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="0" windowWidth="14610" windowHeight="15480" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="58">
   <si>
     <t>Station_ID</t>
   </si>
@@ -182,43 +182,25 @@
     <t>fognight</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>2026-01-13 2030</t>
-  </si>
-  <si>
-    <t>1.8</t>
+    <t>2026-01-14 2030</t>
+  </si>
+  <si>
+    <t>21.0</t>
   </si>
   <si>
     <t>25.0</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>2026-01-14 0230</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
+    <t>2026-01-14 2330</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>11.5</t>
   </si>
 </sst>
 </file>
@@ -798,7 +780,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,22 +827,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="34">
         <v>25.6</v>
       </c>
       <c r="G2" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
@@ -874,19 +856,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="34">
-        <v>24.4</v>
+        <v>51</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="G3" s="3">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>38</v>
@@ -903,19 +885,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>60</v>
+      <c r="F4" s="34">
+        <v>22.8</v>
       </c>
       <c r="G4" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>38</v>
@@ -932,22 +914,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="34">
-        <v>34.299999999999997</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="34">
         <v>23.5</v>
       </c>
       <c r="G5" s="3">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
@@ -961,22 +943,22 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F6" s="34">
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="G6" s="3">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
@@ -990,19 +972,19 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="34">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="G7" s="3">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>38</v>
@@ -1019,19 +1001,19 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="34">
-        <v>2.1</v>
+        <v>51</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="34">
-        <v>19.5</v>
+        <v>21.1</v>
       </c>
       <c r="G8" s="3">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>38</v>
@@ -1048,19 +1030,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="34">
-        <v>23.6</v>
-      </c>
       <c r="G9" s="3">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>36</v>
@@ -1077,19 +1059,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="34">
-        <v>39.4</v>
-      </c>
-      <c r="F10" s="34">
-        <v>23.6</v>
+        <v>51</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="G10" s="3">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>38</v>
@@ -1106,22 +1088,22 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="34">
-        <v>6.9</v>
-      </c>
-      <c r="F11" s="34">
-        <v>23.8</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="G11" s="3">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
@@ -1135,19 +1117,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="34">
-        <v>12.7</v>
+        <v>51</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="G12" s="3">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>38</v>
@@ -1164,22 +1146,22 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="34">
+        <v>23.7</v>
       </c>
       <c r="G13" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
@@ -1193,22 +1175,22 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="F14" s="34">
+        <v>26.7</v>
       </c>
       <c r="G14" s="3">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -1222,19 +1204,19 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="34">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G15" s="3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>38</v>
@@ -1251,19 +1233,19 @@
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="F16" s="34">
-        <v>22.5</v>
+        <v>51</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="G16" s="3">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>38</v>
@@ -1274,56 +1256,57 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43404</v>
+        <v>821501</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="34">
-        <v>0.3</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="F17" s="34">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="G17" s="3">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43410</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
+      <c r="A18" s="1">
+        <v>721501</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="F18" s="34">
-        <v>24.8</v>
+        <v>51</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="G18" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -1331,54 +1314,53 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43415</v>
+        <v>43404</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="34">
+        <v>23.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>91</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43410</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="34">
-        <v>25.2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>90</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43422</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="34">
-        <v>24.4</v>
+        <v>26.5</v>
       </c>
       <c r="G20" s="3">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H20" s="33" t="s">
         <v>38</v>
@@ -1389,28 +1371,28 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43476</v>
+        <v>43415</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="F21" s="34">
+        <v>24.6</v>
       </c>
       <c r="G21" s="3">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
@@ -1418,25 +1400,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43479</v>
+        <v>43422</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="34">
+        <v>24.3</v>
       </c>
       <c r="G22" s="3">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H22" s="33" t="s">
         <v>38</v>
@@ -1447,25 +1429,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43475</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>43476</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="34">
-        <v>26.2</v>
+        <v>18.3</v>
       </c>
       <c r="G23" s="3">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>38</v>
@@ -1476,28 +1458,28 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>721501</v>
+        <v>43479</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="34">
-        <v>2.8</v>
+        <v>51</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -1505,25 +1487,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>821501</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>43475</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="34">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="G25" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="33" t="s">
         <v>38</v>
@@ -1533,8 +1515,8 @@
       <c r="K25" s="35"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K25">
-    <sortCondition descending="1" ref="C1:C25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K17">
+    <sortCondition descending="1" ref="C1:C17"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -1551,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
@@ -1660,11 +1642,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>mist</v>
+        <v>fairday</v>
       </c>
       <c r="E4" s="7">
         <v>4</v>
@@ -1688,11 +1670,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>partlycloudy</v>
       </c>
       <c r="E5" s="7">
         <v>5</v>
@@ -1716,11 +1698,11 @@
         <v>11</v>
       </c>
       <c r="C6" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>partlycloudy</v>
+        <v>fairday</v>
       </c>
       <c r="E6" s="7">
         <v>6</v>
@@ -1744,11 +1726,11 @@
         <v>12</v>
       </c>
       <c r="C7" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>partlycloudy</v>
+        <v>fairday</v>
       </c>
       <c r="E7" s="7">
         <v>7</v>
@@ -1772,11 +1754,11 @@
         <v>13</v>
       </c>
       <c r="C8" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>cloudy</v>
+        <v>fairday</v>
       </c>
       <c r="E8" s="7">
         <v>8</v>
@@ -1800,11 +1782,11 @@
         <v>14</v>
       </c>
       <c r="C9" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>haze</v>
+        <v>fairday</v>
       </c>
       <c r="E9" s="7">
         <v>9</v>
@@ -1828,11 +1810,11 @@
         <v>15</v>
       </c>
       <c r="C10" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>partlycloudy</v>
       </c>
       <c r="E10" s="7">
         <v>10</v>
@@ -1856,11 +1838,11 @@
         <v>16</v>
       </c>
       <c r="C11" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>partlycloudy</v>
+        <v>fairday</v>
       </c>
       <c r="E11" s="7">
         <v>11</v>
@@ -1912,11 +1894,11 @@
         <v>17</v>
       </c>
       <c r="C13" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>mist</v>
+        <v>fairday</v>
       </c>
       <c r="E13" s="7">
         <v>13</v>
@@ -1996,11 +1978,11 @@
         <v>20</v>
       </c>
       <c r="C16" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>partlycloudy</v>
+        <v>fairday</v>
       </c>
       <c r="E16" s="7">
         <v>16</v>
@@ -2024,11 +2006,11 @@
         <v>21</v>
       </c>
       <c r="C17" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>haze</v>
+        <v>fairday</v>
       </c>
       <c r="E17" s="7">
         <v>17</v>
@@ -2052,11 +2034,11 @@
         <v>22</v>
       </c>
       <c r="C18" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>partlycloudy</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2067,11 +2049,11 @@
         <v>23</v>
       </c>
       <c r="C19" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>mist</v>
+        <v>haze</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2082,11 +2064,11 @@
         <v>24</v>
       </c>
       <c r="C20" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>fairday</v>
+        <v>cloudy</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2157,11 +2139,11 @@
         <v>29</v>
       </c>
       <c r="C25" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>cloudy</v>
+        <v>fairday</v>
       </c>
     </row>
   </sheetData>
